--- a/Fizyka_Sprawka/Objetosc Tulejka.xlsx
+++ b/Fizyka_Sprawka/Objetosc Tulejka.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Obliczanie Objetosci</t>
   </si>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>(dzew-dwew)^2</t>
+  </si>
+  <si>
+    <t>(2h*(dwew-dzew))^2</t>
+  </si>
+  <si>
+    <t>((dzew-dwew)^2)^2</t>
+  </si>
+  <si>
+    <t>sqrt(124140.903673088)</t>
+  </si>
+  <si>
+    <t>skl z dwew</t>
+  </si>
+  <si>
+    <t>skl z dzew</t>
+  </si>
+  <si>
+    <t>skl z h</t>
+  </si>
+  <si>
+    <t>suma powyzszych sklad.</t>
+  </si>
+  <si>
+    <t>WYNIK!!!!!!!!!!</t>
   </si>
 </sst>
 </file>
@@ -226,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -235,22 +259,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,8 +305,639 @@
       <xdr:rowOff>23192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4154194" cy="359329"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1072650" y="2344911"/>
+              <a:ext cx="4154194" cy="359329"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑉</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:acc>
+                    <m:accPr>
+                      <m:chr m:val="̅"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:accPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>h</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:acc>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑟</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:acc>
+                    <m:accPr>
+                      <m:chr m:val="̅"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:accPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>h</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:acc>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:acc>
+                        <m:accPr>
+                          <m:chr m:val="̅"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:accPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑧𝑒𝑤</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:acc>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US">
+                          <a:effectLst/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" b="0" i="1">
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:acc>
+                        <m:accPr>
+                          <m:chr m:val="̅"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:accPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑤𝑒𝑤</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:acc>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US">
+                          <a:effectLst/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=34.17∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(15.858−</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>12.215</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>34.17∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>3.643</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>34.17∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>13.271449</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 453.4854123</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -316,675 +974,6 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝑉</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:acc>
-                    <m:accPr>
-                      <m:chr m:val="̅"/>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:accPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>h</m:t>
-                      </m:r>
-                    </m:e>
-                  </m:acc>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝜋</m:t>
-                  </m:r>
-                  <m:sSup>
-                    <m:sSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑟</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSup>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:acc>
-                    <m:accPr>
-                      <m:chr m:val="̅"/>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:accPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>h</m:t>
-                      </m:r>
-                    </m:e>
-                  </m:acc>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝜋</m:t>
-                  </m:r>
-                  <m:sSup>
-                    <m:sSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:acc>
-                        <m:accPr>
-                          <m:chr m:val="̅"/>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1100" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:accPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑑𝑧𝑒𝑤</m:t>
-                          </m:r>
-                        </m:e>
-                      </m:acc>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US">
-                          <a:effectLst/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" b="0" i="1">
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>−</m:t>
-                      </m:r>
-                      <m:acc>
-                        <m:accPr>
-                          <m:chr m:val="̅"/>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1100" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:accPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑑𝑤𝑒𝑤</m:t>
-                          </m:r>
-                        </m:e>
-                      </m:acc>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US">
-                          <a:effectLst/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSup>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>34.17∗</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝜋</m:t>
-                  </m:r>
-                  <m:sSup>
-                    <m:sSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>15.858</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>−</m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>12.215</m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>=</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>34.17∗</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝜋</m:t>
-                  </m:r>
-                  <m:sSup>
-                    <m:sSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSupPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>3.643</m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US"/>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>)</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>2</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>=</a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>34.17∗</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝜋</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>*</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>13.271449</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>= 453.4854123</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US"/>
-                <a:t> </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝜋</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1072650" y="2344911"/>
-              <a:ext cx="4154194" cy="359329"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1418,8 +1407,8 @@
       <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="312842" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1511,7 +1500,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1576,8 +1565,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="842015" cy="160852"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1655,7 +1644,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1729,8 +1718,8 @@
       <xdr:rowOff>20053</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="842015" cy="160852"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -1808,7 +1797,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -1888,8 +1877,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="842015" cy="160852"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -1967,7 +1956,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -2042,11 +2031,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>544414</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>108920</xdr:rowOff>
+      <xdr:colOff>142976</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30551</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4097792" cy="1252088"/>
+    <xdr:ext cx="5595898" cy="2185778"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -2056,13 +2045,18 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5359466" y="489920"/>
-              <a:ext cx="4097792" cy="1252088"/>
+              <a:off x="4939094" y="4647375"/>
+              <a:ext cx="5595898" cy="2185778"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="0">
@@ -2274,7 +2268,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2328,7 +2322,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2341,7 +2335,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2355,7 +2349,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2368,7 +2362,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2380,7 +2374,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2394,7 +2388,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2406,35 +2400,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑑</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>𝑧</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑒𝑤</m:t>
+                                  <m:t>𝑑𝑧𝑒𝑤</m:t>
                                 </m:r>
                               </m:den>
                             </m:f>
@@ -2444,7 +2414,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2456,7 +2426,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2468,7 +2438,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2480,7 +2450,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2494,7 +2464,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2522,7 +2492,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2535,7 +2505,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2549,7 +2519,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2562,7 +2532,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2574,7 +2544,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2588,7 +2558,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2614,7 +2584,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2626,7 +2596,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2650,7 +2620,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2664,7 +2634,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2682,587 +2652,1358 @@
             <a:p>
               <a:pPr/>
               <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:rad>
-                      <m:radPr>
-                        <m:degHide m:val="on"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:radPr>
-                      <m:deg/>
-                      <m:e>
-                        <m:sSup>
-                          <m:sSupPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSupPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent2">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:f>
-                              <m:fPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent2">
-                                        <a:lumMod val="75000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:fPr>
-                              <m:num>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent2">
-                                        <a:lumMod val="75000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>ⅆ</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent2">
-                                        <a:lumMod val="75000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑉</m:t>
-                                </m:r>
-                              </m:num>
-                              <m:den>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent2">
-                                        <a:lumMod val="75000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>ⅆ</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent2">
-                                        <a:lumMod val="75000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑑𝑤𝑒𝑤</m:t>
-                                </m:r>
-                              </m:den>
-                            </m:f>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent2">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑢</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent2">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent2">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑑𝑤𝑒𝑤</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent2">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>))</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>2</m:t>
-                            </m:r>
-                          </m:sup>
-                        </m:sSup>
-                        <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>+</m:t>
-                        </m:r>
-                        <m:sSup>
-                          <m:sSupPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent1">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSupPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent1">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:f>
-                              <m:fPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent1">
-                                        <a:lumMod val="75000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:fPr>
-                              <m:num>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent1">
-                                        <a:lumMod val="75000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>ⅆ</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent1">
-                                        <a:lumMod val="75000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑉</m:t>
-                                </m:r>
-                              </m:num>
-                              <m:den>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent1">
-                                        <a:lumMod val="75000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>ⅆ</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent1">
-                                        <a:lumMod val="75000"/>
-                                      </a:schemeClr>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑑𝑧𝑒𝑤</m:t>
-                                </m:r>
-                              </m:den>
-                            </m:f>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent1">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑢</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent1">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent1">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑑𝑧𝑒𝑤</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent1">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>))</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent1">
-                                    <a:lumMod val="75000"/>
-                                  </a:schemeClr>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>2</m:t>
-                            </m:r>
-                          </m:sup>
-                        </m:sSup>
-                        <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>+</m:t>
-                        </m:r>
-                        <m:sSup>
-                          <m:sSupPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent6"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSupPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent6"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:f>
-                              <m:fPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent6"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:fPr>
-                              <m:num>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent6"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>ⅆ</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent6"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑉</m:t>
-                                </m:r>
-                              </m:num>
-                              <m:den>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent6"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>ⅆ</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="accent6"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>h</m:t>
-                                </m:r>
-                              </m:den>
-                            </m:f>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent6"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑢</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent6"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>(</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent6"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>h</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent6"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>))</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="accent6"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>2</m:t>
-                            </m:r>
-                          </m:sup>
-                        </m:sSup>
-                      </m:e>
-                    </m:rad>
-                  </m:oMath>
-                </m:oMathPara>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent2">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent2">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent2">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent2">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑉</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent2">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent2">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑑𝑤𝑒𝑤</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent2">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent2">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent2">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑤𝑒𝑤</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent2">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>))</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent1">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent1">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent1">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑉</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent1">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent1">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑑𝑧𝑒𝑤</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑧𝑒𝑤</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>))</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent6"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent6"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent6"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑉</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent6"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent6"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>h</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>))</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
               </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>dwew</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>-</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>dzew</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US">
+                              <a:effectLst/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>dzew</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>-</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>dwew</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑑𝑧𝑒𝑤</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑑𝑤𝑒𝑤</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:d>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>61982.38616</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>61982.38616</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>176.1313586</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>124140.9037</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>352.3363502</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>360</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -3276,13 +4017,18 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5359466" y="489920"/>
-              <a:ext cx="4097792" cy="1252088"/>
+              <a:off x="4939094" y="4647375"/>
+              <a:ext cx="5595898" cy="2185778"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </xdr:spPr>
           <xdr:style>
             <a:lnRef idx="0">
@@ -3393,55 +4139,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑑𝑤𝑒𝑤 𝑢(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑑𝑤𝑒𝑤</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>))〗^2+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
+                <a:t>𝑑𝑤𝑒𝑤 𝑢(𝑑𝑤𝑒𝑤))〗^2+〖(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -3449,7 +4147,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3461,7 +4159,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3473,7 +4171,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3485,59 +4183,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑑</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑧</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑒𝑤 𝑢(𝑑𝑧𝑒𝑤))〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑧𝑒𝑤 𝑢(𝑑𝑧𝑒𝑤))〗^2+〖(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -3545,7 +4195,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3557,7 +4207,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3569,7 +4219,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3585,55 +4235,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ℎ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 𝑢(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ℎ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>))〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:t>ℎ 𝑢(ℎ))〗^2 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -3657,7 +4259,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3669,7 +4271,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3683,7 +4285,7 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3697,7 +4299,7 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3711,7 +4313,7 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3725,7 +4327,7 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3739,7 +4341,7 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3751,7 +4353,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3765,7 +4367,7 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3779,7 +4381,7 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3793,7 +4395,7 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3807,7 +4409,7 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3821,11 +4423,111 @@
                     </a:schemeClr>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑧𝑒𝑤 𝑢(𝑑𝑧𝑒𝑤))〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ℎ 𝑢(ℎ))〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑑𝑧𝑒𝑤 𝑢(𝑑𝑧𝑒𝑤))〗^2</a:t>
+                <a:t>√(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -3837,70 +4539,348 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                <a:t>〖("</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
+                <a:t>2h</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 𝜋"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(dwew-dzew)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2+〖("</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2h</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 𝜋"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(dzew-dwew)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)" 〗^2+〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑑𝑧𝑒𝑤−𝑑𝑤𝑒𝑤))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ⅆ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑉</a:t>
+                <a:t>"61982.38616</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" +</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"61982.38616</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" +</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"176.1313586</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>/ⅆ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ℎ 𝑢(ℎ))〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3909,10 +4889,14 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>"124140.9037</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3921,8 +4905,55 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
+                <a:t>" )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>352.3363502</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>360</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -3939,8 +4970,8 @@
       <xdr:rowOff>142728</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2784231" cy="1022890"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -4882,7 +5913,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11"/>
@@ -5420,8 +6451,8 @@
       <xdr:rowOff>75873</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2183606" cy="302419"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -5484,7 +6515,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5497,7 +6528,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5509,7 +6540,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5523,7 +6554,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5535,7 +6566,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5549,7 +6580,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5561,7 +6592,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5573,7 +6604,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5585,7 +6616,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5617,7 +6648,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5647,7 +6678,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15"/>
@@ -5809,8 +6840,8 @@
       <xdr:rowOff>76983</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1679883" cy="246927"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -5856,7 +6887,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5869,7 +6900,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5881,7 +6912,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5895,7 +6926,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5907,7 +6938,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -5921,7 +6952,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5933,7 +6964,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5945,7 +6976,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5957,7 +6988,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -5977,7 +7008,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6081,7 +7112,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16"/>
@@ -6209,8 +7240,8 @@
       <xdr:rowOff>39187</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2036776" cy="246927"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -6256,7 +7287,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6269,7 +7300,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6281,7 +7312,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6295,7 +7326,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6307,7 +7338,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6321,7 +7352,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6333,7 +7364,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6345,7 +7376,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6357,7 +7388,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6377,7 +7408,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6394,7 +7425,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17"/>
@@ -6514,8 +7545,8 @@
       <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3205843" cy="419154"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -6561,7 +7592,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6574,7 +7605,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6586,7 +7617,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6600,7 +7631,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6612,7 +7643,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6626,7 +7657,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6638,7 +7669,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6650,7 +7681,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6662,7 +7693,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6682,7 +7713,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6702,7 +7733,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6722,7 +7753,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -6735,7 +7766,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -6878,9 +7909,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>98681</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60818</xdr:rowOff>
+      <xdr:colOff>106964</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2839</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3205843" cy="419154"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6892,7 +7923,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9400051" y="3522948"/>
+              <a:off x="9880442" y="3845969"/>
               <a:ext cx="3205843" cy="419154"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -6930,7 +7961,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6943,7 +7974,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6955,7 +7986,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -6969,23 +8000,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
                         <m:t>ⅆ</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑑</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -6997,19 +8016,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝑧</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑒𝑤</m:t>
+                        <m:t>𝑑𝑧𝑒𝑤</m:t>
                       </m:r>
                     </m:den>
                   </m:f>
@@ -7019,7 +8026,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7031,7 +8038,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7043,11 +8050,11 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>𝑑</m:t>
+                    <m:t>𝑑𝑧𝑒𝑤</m:t>
                   </m:r>
                   <m:r>
                     <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -7059,30 +8066,6 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>𝑧</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑒𝑤</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
                     <m:t>)</m:t>
                   </m:r>
                 </m:oMath>
@@ -7099,7 +8082,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7119,7 +8102,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7139,7 +8122,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7160,7 +8143,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9400051" y="3522948"/>
+              <a:off x="9880442" y="3845969"/>
               <a:ext cx="3205843" cy="419154"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7194,7 +8177,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7206,7 +8189,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7218,7 +8201,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7230,59 +8213,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑑</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑧</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑒𝑤 𝑢(𝑑</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑧</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑒𝑤)</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑧𝑒𝑤 𝑢(𝑑𝑧𝑒𝑤)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100"/>
@@ -7294,7 +8229,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7310,7 +8245,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7326,7 +8261,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7342,10 +8277,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604631</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2455416" cy="246927"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7357,7 +8292,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6036879" y="3836276"/>
+              <a:off x="6038022" y="3950804"/>
               <a:ext cx="2455416" cy="246927"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7395,7 +8330,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -7408,7 +8343,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -7420,7 +8355,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -7434,7 +8369,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -7446,7 +8381,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -7460,7 +8395,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7472,7 +8407,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7484,7 +8419,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7496,7 +8431,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7516,7 +8451,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7639,7 +8574,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -7660,7 +8595,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6036879" y="3836276"/>
+              <a:off x="6038022" y="3950804"/>
               <a:ext cx="2455416" cy="246927"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7694,7 +8629,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7706,7 +8641,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7718,7 +8653,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7730,7 +8665,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7746,23 +8681,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜋</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(𝑑𝑧𝑒𝑤−𝑑𝑤𝑒𝑤)〗^2</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋〖(𝑑𝑧𝑒𝑤−𝑑𝑤𝑒𝑤)〗^2</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100"/>
@@ -7778,19 +8701,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>13.271449</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜋</a:t>
+                <a:t>13.271449𝜋</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -8066,10 +8977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z40" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8077,10 +8988,10 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -8093,12 +9004,12 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -8110,19 +9021,19 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
@@ -8132,17 +9043,17 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -8152,22 +9063,22 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="15">
         <f>2*B5</f>
         <v>68.34</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
@@ -8179,22 +9090,22 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="15">
         <f>B6-B7</f>
         <v>-3.6430000000000007</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -8206,22 +9117,22 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="15">
         <f>P4*P5</f>
         <v>-248.96262000000007</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -8233,17 +9144,22 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="15">
+        <f>POWER(P6,2)</f>
+        <v>61982.386157264438</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -8258,17 +9174,17 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -8283,17 +9199,17 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -8308,17 +9224,17 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -8328,230 +9244,305 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="14">
         <f>2*B5</f>
         <v>68.34</v>
       </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <f>B5</f>
         <v>34.17</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16" t="s">
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="14">
         <f>B7-B6</f>
         <v>3.6430000000000007</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H18" s="18"/>
-      <c r="I18" s="18" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="16">
         <f>B7-B6</f>
         <v>3.6430000000000007</v>
       </c>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16" t="s">
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="14">
         <f>P16*P17</f>
         <v>248.96262000000007</v>
       </c>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H19" s="18"/>
-      <c r="I19" s="18" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="16">
         <f>POWER(J18,2)</f>
         <v>13.271449000000006</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="14">
+        <f>POWER(P18,2)</f>
+        <v>61982.386157264438</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="16">
+        <f>POWER(J19,2)</f>
+        <v>176.13135855960115</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25">
+        <v>176.13135855960101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26">
+        <v>61982.386157264402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27">
+        <v>61982.386157264402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28">
+        <f>P25+P26+P27</f>
+        <v>124140.90367308841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <f>SQRT(124140.903673088)</f>
+        <v>352.33635020117924</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="H2:J2"/>
+    <mergeCell ref="G36:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fizyka_Sprawka/Objetosc Tulejka.xlsx
+++ b/Fizyka_Sprawka/Objetosc Tulejka.xlsx
@@ -2650,7 +2650,6 @@
               <a:endParaRPr lang="pl-PL" sz="1100"/>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -3243,7 +3242,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3259,7 +3258,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3272,7 +3271,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3314,7 +3313,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3363,7 +3362,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-</m:t>
+                            <m:t>−</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -3424,7 +3423,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3438,7 +3437,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3452,7 +3451,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3465,7 +3464,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3507,7 +3506,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3556,7 +3555,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-</m:t>
+                            <m:t>−</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -3611,7 +3610,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3625,7 +3624,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3639,7 +3638,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3664,7 +3663,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3743,7 +3742,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -3798,7 +3797,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3821,6 +3820,49 @@
                         </a:rPr>
                         <m:t>61982.38616</m:t>
                       </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
                       <m:r>
                         <m:rPr>
                           <m:nor/>
@@ -3834,7 +3876,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3855,6 +3897,49 @@
                         </a:rPr>
                         <m:t>61982.38616</m:t>
                       </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
                       <m:r>
                         <m:rPr>
                           <m:nor/>
@@ -3868,7 +3953,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3889,6 +3974,49 @@
                         </a:rPr>
                         <m:t>176.1313586</m:t>
                       </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
                       <m:r>
                         <m:rPr>
                           <m:nor/>
@@ -3919,7 +4047,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3942,6 +4070,49 @@
                         </a:rPr>
                         <m:t>124140.9037</m:t>
                       </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
                       <m:r>
                         <m:rPr>
                           <m:nor/>
@@ -3957,7 +4128,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -3977,6 +4148,22 @@
                 </a:rPr>
                 <a:t>352.3363502</a:t>
               </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
               <a:r>
                 <a:rPr lang="en-US"/>
                 <a:t> </a:t>
@@ -3998,12 +4185,23 @@
                 </a:rPr>
                 <a:t>360</a:t>
               </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" i="1">
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -4252,7 +4450,6 @@
               <a:endParaRPr lang="pl-PL" sz="1100"/>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
@@ -4523,14 +4720,38 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -4539,7 +4760,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖("</a:t>
+                <a:t>2h</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" i="0">
@@ -4551,6 +4796,48 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>(dwew−dzew)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2+〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>2h</a:t>
               </a:r>
               <a:r>
@@ -4559,11 +4846,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" 𝜋"</a:t>
+                <a:t>"</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" i="0">
@@ -4575,25 +4874,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(dwew-dzew)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )</a:t>
+                <a:t>(dzew−dwew)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -4605,115 +4886,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〗^2+〖("</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2h</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" 𝜋"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(dzew-dwew)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)" 〗^2+〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜋</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(𝑑𝑧𝑒𝑤−𝑑𝑤𝑒𝑤))</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 〗^2+〖(𝜋(𝑑𝑧𝑒𝑤−𝑑𝑤𝑒𝑤))〗^2=</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -4721,7 +4906,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4753,11 +4938,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>√(</a:t>
+                <a:t>"61982.38616</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -4765,11 +4962,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"61982.38616</a:t>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^2 "</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -4781,11 +5002,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" +</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" +</a:t>
+                <a:t>"61982.38616</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -4793,11 +5026,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"61982.38616</a:t>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^2 "</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -4809,11 +5066,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" +</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" +</a:t>
+                <a:t>"176.1313586</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -4821,18 +5090,84 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"176.1313586</a:t>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^2 "</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -4841,83 +5176,89 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>"124140.9037</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>" </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"124140.9037</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^2 "</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
+                <a:t>352.3363502</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -4925,11 +5266,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>352.3363502</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US"/>
@@ -4947,13 +5288,20 @@
                   <a:effectLst/>
                 </a:rPr>
                 <a:t>360</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
               </a:r>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -7914,8 +8262,8 @@
       <xdr:rowOff>2839</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3205843" cy="419154"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -8135,7 +8483,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -8283,8 +8631,8 @@
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2455416" cy="246927"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -8587,7 +8935,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -8979,8 +9327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z40" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
